--- a/docs/PST1/PST1_13.08.2024_output.xlsx
+++ b/docs/PST1/PST1_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2354 +505,2793 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731082327.3120604</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731082329.482906</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082327.3120604.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082329.482906.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.82</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731082330.5823715</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731082334.5475185</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082330.5823715.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082334.5475185.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>281.01</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8600000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731082334.5631402</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731082336.6031082</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082334.5631402.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082336.6031082.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.15</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.87</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.7200000000000273</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731082337.7130122</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731082341.8213036</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082337.7130122.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082341.8213036.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.17</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2.370000000000005</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731082341.8369246</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731082341.8369246.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+          <t>./test_images/SBERP1731082341.8369246.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.17</v>
       </c>
-      <c r="J7" t="n">
-        <v>283.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>282.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2700000000000387</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731082345.0619736</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731082346.8973846</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082345.0619736.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082346.8973846.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.82</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>280.89</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731082347.9009438</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731082351.4862807</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082347.9009438.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082351.4862807.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>281.01</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>280.15</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.8600000000000136</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731082351.5002165</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731082353.4006803</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082351.5002165.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082353.4006803.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>280.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>280.87</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.7200000000000273</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731082354.5107167</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731082358.5340538</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082354.5107167.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082358.5340538.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>280.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.17</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-2.370000000000005</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731082358.5532024</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731082360.3023136</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082358.5532024.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082360.3023136.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.17</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>281.24</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.930000000000007</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731082362.418238</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731082364.4389863</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082362.418238.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082364.4389863.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>281.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>281.84</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2399999999999523</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731082368.2500165</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731082369.5581653</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082368.2500165.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082369.5581653.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>281.33</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>281.19</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1399999999999864</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731082369.573786</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731082371.061135</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082369.573786.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082371.061135.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>281.19</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>281.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731082373.3189476</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731082374.8487391</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082373.3189476.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082374.8487391.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>281.41</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.89</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4799999999999613</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731082376.9842885</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731082376.9842885.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+          <t>./test_images/SBER1731082376.9842885.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>283.69</v>
       </c>
-      <c r="J17" t="n">
-        <v>283.69</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>283.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731082378.8708143</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731082379.2144833</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082378.8708143.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082379.2144833.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.29</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.42</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731082382.527965</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731082383.648881</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082382.527965.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082383.648881.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.63</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.86</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731082384.1416895</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731082384.6821823</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082384.1416895.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082384.6821823.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.88</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731082384.6978037</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731082392.2627041</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082384.6978037.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082392.2627041.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.89</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731082392.2750902</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731082393.4893286</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082392.2750902.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082393.4893286.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.89</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>130.29</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731082393.936346</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731082394.4226873</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082393.936346.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082394.4226873.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>130.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>130.38</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731082394.9725454</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731082396.480388</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082394.9725454.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082396.480388.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>130.37</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.03</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731082398.0426185</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731082398.7482517</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082398.0426185.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082398.7482517.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6421.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6432.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>11</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731082398.7638464</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731082399.168881</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082398.7638464.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082399.168881.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6432.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6427</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731082399.49973</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731082399.6839447</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082399.49973.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082399.6839447.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6438.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731082405.2176523</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731082407.0840266</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082405.2176523.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082407.0840266.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6429</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6423.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-5.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731082407.1007237</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731082408.3507478</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082407.1007237.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082408.3507478.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6423.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6433</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-9.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731082410.5186105</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731082410.5186105.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731082410.5186105.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6439.5</v>
       </c>
-      <c r="J30" t="n">
-        <v>6439.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>6452</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731082418.5583231</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731082426.2365897</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082418.5583231.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082426.2365897.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>501.85</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>502.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.9499999999999886</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731082426.2526052</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731082429.2962909</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082426.2526052.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082429.2962909.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>502.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>502.9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.09999999999996589</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731082429.3112736</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731082429.912102</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082429.3112736.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082429.912102.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>502.9</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>502.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.09999999999996589</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731082430.49046</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731082430.49046.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731082430.49046.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>503</v>
       </c>
-      <c r="J34" t="n">
-        <v>503</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>502.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731082438.2692163</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731082439.985821</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082438.2692163.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082439.985821.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>226.81</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>227.02</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731082444.4272492</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731082445.1836674</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082444.4272492.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082445.1836674.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>226.39</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>225.99</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731082446.0075808</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731082446.9028962</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082446.0075808.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082446.9028962.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>226.38</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>226.24</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731082447.0665112</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731082447.583264</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082447.0665112.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082447.583264.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>226.08</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>225.85</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731082448.9148242</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731082452.9498448</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082448.9148242.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082452.9498448.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>225.55</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>226.84</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-1.289999999999992</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731082452.9693108</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731082453.0170395</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082452.9693108.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082453.0170395.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>226.84</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>226.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731082453.8836215</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731082454.17921</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082453.8836215.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082454.17921.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1038.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1033</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-5.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731082455.5550601</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731082456.041188</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082455.5550601.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082456.041188.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1032</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1034.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731082456.0498092</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731082457.5006845</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082456.0498092.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082457.5006845.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1034.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1038</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731082458.3689945</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731082460.0392082</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082458.3689945.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082460.0392082.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1042.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1040.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>2.199999999999818</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731082460.0548341</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731082460.3882701</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082460.0548341.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082460.3882701.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1040.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>5.199999999999818</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731082461.7296207</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731082463.1474066</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082461.7296207.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082463.1474066.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1044.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1041.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-2.600000000000136</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731082466.3064206</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731082467.059197</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082466.3064206.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082467.059197.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1050.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1054.4</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731082469.0164587</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731082470.5538712</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082469.0164587.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082470.5538712.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1053.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1051</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731082471.2997348</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731082471.6119401</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082471.2997348.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731082471.6119401.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1053</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1055.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731082471.9735236</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731082471.9735236.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+          <t>./test_images/NVTK1731082471.9735236.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1052.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1052.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2845,873 +3299,1035 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731082472.8725154</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731082473.4015598</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082472.8725154.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082473.4015598.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.07</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>12.089</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01900000000000013</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731082474.4302473</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731082476.3999114</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082474.4302473.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082476.3999114.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.12</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.16</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.04000000000000092</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731082477.0000632</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731082477.7165005</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082477.0000632.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082477.7165005.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.185</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.195</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.009999999999999787</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731082477.7668834</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731082477.818919</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082477.7668834.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082477.818919.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.19</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>12.191</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731082477.9331095</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731082478.5001078</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082477.9331095.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082478.5001078.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>12.189</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>12.193</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731082479.1332266</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731082482.334202</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082479.1332266.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082482.334202.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>12.173</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12.161</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.01200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731082486.4478545</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731082486.7851555</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082486.4478545.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082486.7851555.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>12.165</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>12.139</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.0259999999999998</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731082487.0037174</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731082489.6454337</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082487.0037174.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082489.6454337.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>12.149</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>12.168</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.01900000000000013</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731082489.6620712</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731082490.2283394</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082489.6620712.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731082490.2283394.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>12.168</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>12.177</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731082494.245381</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731082497.4275212</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082494.245381.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082497.4275212.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>125.74</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>127.42</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.680000000000007</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731082497.4431405</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731082498.020265</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082497.4431405.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082498.020265.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>127.42</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>127.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731082500.8118448</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731082501.4088266</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082500.8118448.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082501.4088266.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>128.18</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>129</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731082502.2224517</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731082502.7568562</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082502.2224517.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731082502.7568562.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>128.7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>129.28</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.5800000000000125</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731082505.9441457</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731082505.9441457.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+          <t>./test_images/GMKN1731082505.9441457.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>128.66</v>
       </c>
-      <c r="J64" t="n">
-        <v>128.66</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>128</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731082511.3774793</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731082512.2517111</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082511.3774793.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082512.2517111.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>163.36</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>163.12</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731082519.037082</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731082519.5827107</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082519.037082.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082519.5827107.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>164.84</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>164.78</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731082521.9956863</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731082525.042991</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082521.9956863.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082525.042991.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>165.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>165.38</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731082525.0586677</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731082526.0920308</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082525.0586677.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082526.0920308.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>165.38</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>165.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3719,432 +4335,513 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731082526.1452398</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731082527.6398208</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082526.1452398.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731082527.6398208.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>165.36</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>164.74</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731082529.3723562</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731082530.957813</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082529.3723562.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082530.957813.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>50.215</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>50.24</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731082532.91659</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731082533.4939637</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082532.91659.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082533.4939637.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>50.27</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>50.36</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731082536.9406388</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731082536.9957151</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082536.9406388.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082536.9957151.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>50.18</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>50.035</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.1450000000000031</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731082537.7396307</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731082539.1709275</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082537.7396307.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082539.1709275.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>50.075</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>50.12</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0449999999999946</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731082539.187412</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731082540.0325904</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082539.187412.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082540.0325904.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>50.12</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>50.13</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731082541.7126987</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731082544.9290166</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082541.7126987.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731082544.9290166.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>50.17</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>50.075</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731082544.9456081</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731082544.9456081.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+          <t>./test_images/MAGN1731082544.9456081.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>50.075</v>
       </c>
-      <c r="J76" t="n">
-        <v>50.075</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>50.055</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731082548.2536438</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731082548.9182534</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082548.2536438.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082548.9182534.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1400</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1400</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,579 +4849,687 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731082554.5282698</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731082556.3134413</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082554.5282698.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082556.3134413.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1400</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1394.2</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-5.799999999999955</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731082556.3168066</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731082557.1738718</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082556.3168066.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082557.1738718.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1394.2</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1394.6</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.3999999999998636</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731082563.0939472</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731082565.0335221</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082563.0939472.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731082565.0335221.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>1402.4</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>1399.2</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731082565.801806</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731082566.1995425</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082565.801806.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082566.1995425.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>59.61</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>59.83</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731082571.7498965</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731082572.4390135</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082571.7498965.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082572.4390135.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>59.95</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>60.03</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731082573.851173</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731082574.2346158</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082573.851173.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082574.2346158.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>59.94</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>59.76</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731082575.904144</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731082576.4810734</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082575.904144.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082576.4810734.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>59.8</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>59.89</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731082576.4827976</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731082578.7278256</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082576.4827976.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082578.7278256.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>59.89</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>59.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731082578.733236</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731082580.7914534</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082578.733236.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082580.7914534.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>59.8</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>59.78</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731082580.800033</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731082581.982742</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082580.800033.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731082581.982742.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>59.78</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>59.82</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731082583.8565338</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731082583.8565338.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+          <t>./test_images/ALRS1731082583.8565338.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>59.64</v>
       </c>
-      <c r="J88" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
+      <c r="L88" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731082585.1942236</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731082586.2014468</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082585.1942236.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082586.2014468.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>99.06999999999999</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>99.06999999999999</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4732,1502 +5537,1781 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731082588.5598252</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731082588.9105127</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082588.5598252.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082588.9105127.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>99.06</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>99.25</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731082590.4149504</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731082590.7274475</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082590.4149504.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082590.7274475.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>99.81</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>99.69</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731082591.0947316</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731082591.368867</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082591.0947316.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082591.368867.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>99.91</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>100.1</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731082591.578627</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731082592.7303839</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082591.578627.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082592.7303839.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>99.91</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731082597.481463</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731082598.4481027</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082597.481463.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082598.4481027.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>99.84999999999999</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.3099999999999881</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731082598.463725</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731082601.0235212</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082598.463725.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082601.0235212.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>99.84999999999999</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>100.43</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731082601.0386047</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731082601.855498</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082601.0386047.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731082601.855498.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>100.43</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>100.44</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731082603.4232802</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731082607.38359</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082603.4232802.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082607.38359.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>56.4</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>56.31</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731082607.398647</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731082610.3636084</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082607.398647.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082610.3636084.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>56.31</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>56.34</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731082610.3836982</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731082611.5134537</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082610.3836982.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082611.5134537.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>56.34</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>56.44</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731082612.599948</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731082613.3394573</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082612.599948.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082613.3394573.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>56.43</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>56.49</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731082613.823356</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731082614.0233183</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082613.823356.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082614.0233183.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>56.41</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>56.5</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731082614.3856902</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731082614.9003186</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082614.3856902.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082614.9003186.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>56.43</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>56.55</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731082615.7586057</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731082616.5582962</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082615.7586057.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082616.5582962.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>56.63</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>56.74</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731082617.234694</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731082618.9506865</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082617.234694.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SELG1731082618.9506865.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>56.66</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>56.63</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.02999999999999403</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731082621.4345253</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731082624.552875</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082621.4345253.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082624.552875.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>154.48</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>154.64</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731082624.5688393</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731082626.1935477</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082624.5688393.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082626.1935477.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>154.64</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>154.78</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731082626.4399076</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731082626.5674973</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082626.4399076.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082626.5674973.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>154.72</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>155.48</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731082630.3355894</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731082630.7010424</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082630.3355894.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082630.7010424.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>156.24</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>156.98</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.7399999999999807</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731082631.9886894</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731082632.9376738</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082631.9886894.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082632.9376738.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>157.1</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>157.24</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731082634.3761346</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731082636.5214925</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082634.3761346.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731082636.5214925.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>156.92</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>156.52</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731082648.317997</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731082649.2035651</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082648.317997.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731082649.2035651.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>0.3018</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>0.3027</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.0009000000000000119</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731082650.6498852</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731082651.053885</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082650.6498852.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082651.053885.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>20.445</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>20.496</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.05099999999999838</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731082651.2821665</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731082652.9219959</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082651.2821665.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082652.9219959.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>20.491</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>20.453</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.03800000000000026</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731082656.4874883</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731082657.4490902</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082656.4874883.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082657.4490902.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>20.528</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>20.591</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.06300000000000239</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731082657.901891</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731082659.111991</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082657.901891.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731082659.111991.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>20.501</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>20.557</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.05599999999999739</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731082668.2324836</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731082668.2324836.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+          <t>./test_images/AFKS1731082668.2324836.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>20.52</v>
       </c>
-      <c r="J116" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
+      <c r="L116" t="n">
+        <v>20.476</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.04400000000000048</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731082675.4327106</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731082677.3826468</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082675.4327106.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082677.3826468.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>689.45</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>690.15</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731082685.7719104</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731082686.2662752</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082685.7719104.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082686.2662752.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>684.8</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>684.05</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731082687.0772216</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731082689.3540533</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082687.0772216.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731082689.3540533.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>684.75</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>686.45</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-1.700000000000045</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731082689.3793921</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731082689.3793921.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+          <t>./test_images/SIBN1731082689.3793921.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>686.45</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>686.45</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6235,294 +7319,348 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731082691.396531</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731082691.466723</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082691.396531.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082691.466723.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>153.43</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>153.15</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731082691.7824268</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731082696.814232</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082691.7824268.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082696.814232.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>153.69</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>156.27</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>-2.580000000000013</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-1.68</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731082696.8315203</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731082697.037451</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082696.8315203.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082697.037451.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>156.27</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>156.3</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731082698.1187148</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731082698.4844475</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082698.1187148.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082698.4844475.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>156.23</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>156.21</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731082699.6383095</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731082700.8581629</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082699.6383095.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082700.8581629.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>156.4</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>156.37</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731082702.2237153</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731082705.9155915</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082702.2237153.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731082705.9155915.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>156.05</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>157.32</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>1.269999999999982</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.8099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6536,7 +7674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6560,6 +7698,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6568,11 +7721,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.490000000000123</v>
+        <v>-5.690000000000111</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.5690000000000112</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6586,6 +7748,15 @@
       <c r="C3" t="n">
         <v>10</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1599999999999682</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6599,6 +7770,15 @@
       <c r="C4" t="n">
         <v>9</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.008666666666666798</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6612,6 +7792,15 @@
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.002500000000006608</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6625,6 +7814,15 @@
       <c r="C6" t="n">
         <v>8</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.04125000000000068</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6633,11 +7831,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.1700000000000088</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.0212500000000011</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6651,6 +7858,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1328571428571438</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6659,11 +7875,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0999999999999801</v>
+        <v>0.07999999999997698</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.01142857142856814</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6677,6 +7902,15 @@
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.1750000000000019</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6690,6 +7924,15 @@
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.2033333333333379</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6698,11 +7941,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-11.5</v>
+        <v>-24</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6716,6 +7968,15 @@
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.1250000000000047</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6724,11 +7985,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.880000000000052</v>
+        <v>-4.150000000000091</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.8300000000000182</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6737,11 +8007,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1319999999999979</v>
+        <v>0.08799999999999741</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.01759999999999948</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6755,6 +8034,15 @@
       <c r="C16" t="n">
         <v>5</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.1800000000000011</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6763,11 +8051,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09999999999999432</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.1120000000000005</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.4600000000000002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6776,11 +8073,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7500000000000568</v>
+        <v>-0.7000000000000455</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.1750000000000114</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6794,6 +8100,15 @@
       <c r="C19" t="n">
         <v>4</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.06250000000002842</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6807,6 +8122,15 @@
       <c r="C20" t="n">
         <v>4</v>
       </c>
+      <c r="D20" t="n">
+        <v>-2.349999999999966</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6820,6 +8144,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.0009000000000000119</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6833,6 +8166,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
